--- a/satd_issue_dataset_C#.xlsx
+++ b/satd_issue_dataset_C#.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/td_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{35C480D6-57DB-2241-8D8E-BEB8628B0CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{035489A6-E2DC-3B42-97AB-B299C094DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_C#" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="993" uniqueCount="579">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1062" uniqueCount="638">
   <si>
     <t>Issue</t>
   </si>
@@ -3350,6 +3350,799 @@
   <si>
     <t>[Content]InspectionTypeのリソースキーを削除
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの改善
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Spinning Ducksが更新の間で回転を停止している
+[Class]UIの修正</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">コウシンノ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">アイダ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイテンヲ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">テイシシテイル </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>仕様と結論づけられているためTDではない？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ケツロンヅケラレテイルタメ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Code Explorerが大文字と小文字を区別しない
+[Class]仕様の問題</t>
+    <rPh sb="23" eb="26">
+      <t xml:space="preserve">オオモジトコモジ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">クベツシナイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">シヨウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parse tree traversalでリスナーをビジターに変えることを検討
+[Class]仕様の問題</t>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カエルコトヲ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ケントウ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>_x0000__x0013__x0001__x0007__x0019_</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]命名規則の問題
+[Class]命名規則の問題</t>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">メイメイキソク </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t xml:space="preserve">メイメイキソクノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルト設定を.netファイルに入れる
+[Class]ファイル，コードの整理</t>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">イレル </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの一部をデータ駆動型に変換
+[Class]テストの変更</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">イチブ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ヘンカン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RetailCoder.VBEをRubberduck.VBEに変更
+[Class]ファイル名の変更</t>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Application.Runの代わりにExecuteCodeを使用
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストを実行する環境の話なのでRequirementかも？</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジッコウスル </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">カンキョウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ハナシナノデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクトのプリコンパイラ定数にアクセスできるように変更
+[Class]機能の改善</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の改善
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノカイゼン </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]/libsフォルダの削除
+[Class]不要フォルダの削除</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">フヨウフォルダノ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VB6 CommandBarEventsをラップ
+[Class]機能の改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]COMアナライザーの導入
+[Class]機能の追加</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MSのcsproj形式の利用
+[Class]機能の追加</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ケイシキ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">リヨウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IMessageBoxのクリーンアップ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IRefectoringDialogsでWindows Forms APIを使用しない
+[Class]機能の改善</t>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">シヨウシナイ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オートコンプリートが機能しない
+[Class]機能の改善</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キノウシナイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]解析プロセスのパーサをリファクタリング
+[Class]リファクタリング</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カイセキプロセスノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バリアントデータ型の処理を改善
+[Class]機能の改善</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ガタノ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ショリヲ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シャットダウン時の警告を修正
+[Class]機能の修正</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Experimental attributeの修正
+[Class]機能の修正</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]正規表現の修正
+[Class]コードの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">セイキヒョウゲン </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヒョウゲン </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドでの書き込みエラーの修正
+[Class]ビルドの修正</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">カキコミエラー </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラス生成の修正
+[Class]機能の修正</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]モジュールの変更
+[Class]機能の修正</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の呼び出し順序の変更
+[Class]機能の修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヨビダシ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ジュンジョ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IselectionServiceを使用
+[Class]機能の改善</t>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]I/O処理を内部APIで行う
+[Class]機能の改善</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ナイブ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Visual Studio 2019でビルドが失敗する
+[Class]他のツールへの対応</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シッパイスル </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の単純化，統一
+[Class]機能の単純化</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">タンジュンカ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">トウイツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">タンジュンカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト用のクラスを追加
+[Class]テストの改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DeclarationsExtensionsからRefactoringを移動
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Declaration.Projectを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイオ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストからハードコードされた箇所を削除
+[Class]テストの改善</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">カショ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]チェックイン時に実行されていないテストの追加
+[Class]テストの追加</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ジニ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ジッコウサレテイナイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動テストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジドウテストン </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動テストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジドウテストノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのハードコード部分の修正
+[Class]テストの修正</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BGP route APIのテストを記録する必要がある
+[Class]テストの改善</t>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキップされたテストを修正
+[Class]テストの修正</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スキップされたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stretch editionテストの修正
+[Class]テストの修正</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコードされたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ページング機能のテストの追加
+[Class]テストの追加</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイオ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト実行後にGit remoteを変更
+[Class]テストの改善</t>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ジッコウゴニ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストカバレッジの追加
+[Class]テストの追加</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコードされたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの改善
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動化テストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジドウ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4317,8 +5110,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6568,8 +7361,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>471</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -6579,8 +7375,11 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>456</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>414</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -6590,8 +7389,17 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" t="s">
+        <v>462</v>
+      </c>
+      <c r="E159" t="s">
+        <v>582</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -6601,8 +7409,11 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>462</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>414</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -6612,8 +7423,11 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>486</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>414</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -6623,8 +7437,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>463</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>414</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -6634,8 +7451,11 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>471</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>414</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -6645,8 +7465,11 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>463</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -6656,8 +7479,17 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>471</v>
+      </c>
+      <c r="D165" t="s">
+        <v>462</v>
+      </c>
+      <c r="E165" t="s">
+        <v>590</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>414</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -6667,8 +7499,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>463</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>414</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -6678,8 +7513,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>463</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>414</v>
+        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -6689,8 +7527,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>463</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>414</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -6700,8 +7541,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>463</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>414</v>
+        <v>596</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -6711,8 +7555,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>463</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>414</v>
+        <v>594</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -6722,8 +7569,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>463</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -6733,8 +7583,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>463</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>414</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -6744,8 +7597,11 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>463</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -6755,8 +7611,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>463</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>414</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -6766,8 +7625,11 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>463</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>414</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -6777,8 +7639,11 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>463</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>414</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -6788,8 +7653,11 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>463</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>414</v>
+        <v>601</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -6799,8 +7667,11 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>463</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>414</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -6810,8 +7681,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>463</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>414</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -6821,8 +7695,11 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>463</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>414</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -6832,8 +7709,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>471</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -6843,8 +7723,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>465</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>414</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -6854,8 +7737,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>463</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>414</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -6865,8 +7751,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>463</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>414</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -6876,8 +7765,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>463</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>414</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -6887,8 +7779,11 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>463</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>414</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -6898,8 +7793,11 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>463</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>414</v>
+        <v>611</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -6909,8 +7807,11 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>463</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>414</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -6920,8 +7821,11 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>473</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>414</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -6931,8 +7835,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>463</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>414</v>
+        <v>614</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -6942,8 +7849,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>471</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>414</v>
+        <v>615</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -6953,8 +7863,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>463</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>414</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -6964,8 +7877,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>463</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>414</v>
+        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -6975,8 +7891,11 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>471</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>414</v>
+        <v>618</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -6986,8 +7905,11 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>471</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>414</v>
+        <v>619</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -6997,8 +7919,11 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>471</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -7008,8 +7933,11 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>471</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>414</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -7019,8 +7947,11 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>471</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>414</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -7030,8 +7961,11 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>471</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -7041,8 +7975,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>471</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>414</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -7052,8 +7989,11 @@
       <c r="B201" t="s">
         <v>201</v>
       </c>
+      <c r="C201" t="s">
+        <v>471</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>414</v>
+        <v>624</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -7063,8 +8003,11 @@
       <c r="B202" t="s">
         <v>202</v>
       </c>
+      <c r="C202" t="s">
+        <v>471</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>414</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -7074,8 +8017,11 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
+      <c r="C203" t="s">
+        <v>471</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -7085,8 +8031,11 @@
       <c r="B204" t="s">
         <v>204</v>
       </c>
+      <c r="C204" t="s">
+        <v>471</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>414</v>
+        <v>626</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -7096,8 +8045,11 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>471</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>414</v>
+        <v>627</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -7107,8 +8059,11 @@
       <c r="B206" t="s">
         <v>206</v>
       </c>
+      <c r="C206" t="s">
+        <v>471</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -7118,8 +8073,11 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
+      <c r="C207" t="s">
+        <v>471</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -7129,8 +8087,11 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
+      <c r="C208" t="s">
+        <v>471</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>414</v>
+        <v>629</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -7140,8 +8101,11 @@
       <c r="B209" t="s">
         <v>209</v>
       </c>
+      <c r="C209" t="s">
+        <v>471</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>414</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -7151,8 +8115,11 @@
       <c r="B210" t="s">
         <v>210</v>
       </c>
+      <c r="C210" t="s">
+        <v>471</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>414</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -7162,8 +8129,11 @@
       <c r="B211" t="s">
         <v>211</v>
       </c>
+      <c r="C211" t="s">
+        <v>471</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>414</v>
+        <v>631</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -7173,8 +8143,11 @@
       <c r="B212" t="s">
         <v>212</v>
       </c>
+      <c r="C212" t="s">
+        <v>471</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>414</v>
+        <v>632</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -7184,8 +8157,11 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
+      <c r="C213" t="s">
+        <v>471</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -7195,8 +8171,11 @@
       <c r="B214" t="s">
         <v>214</v>
       </c>
+      <c r="C214" t="s">
+        <v>471</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>414</v>
+        <v>633</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -7206,8 +8185,11 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
+      <c r="C215" t="s">
+        <v>471</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>414</v>
+        <v>634</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -7217,8 +8199,11 @@
       <c r="B216" t="s">
         <v>216</v>
       </c>
+      <c r="C216" t="s">
+        <v>471</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -7228,8 +8213,11 @@
       <c r="B217" t="s">
         <v>217</v>
       </c>
+      <c r="C217" t="s">
+        <v>471</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -7239,8 +8227,11 @@
       <c r="B218" t="s">
         <v>218</v>
       </c>
+      <c r="C218" t="s">
+        <v>471</v>
+      </c>
       <c r="F218" s="2" t="s">
-        <v>414</v>
+        <v>635</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -7250,8 +8241,11 @@
       <c r="B219" t="s">
         <v>219</v>
       </c>
+      <c r="C219" t="s">
+        <v>471</v>
+      </c>
       <c r="F219" s="2" t="s">
-        <v>414</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -7261,8 +8255,11 @@
       <c r="B220" t="s">
         <v>220</v>
       </c>
+      <c r="C220" t="s">
+        <v>471</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -7272,8 +8269,11 @@
       <c r="B221" t="s">
         <v>221</v>
       </c>
+      <c r="C221" t="s">
+        <v>471</v>
+      </c>
       <c r="F221" s="2" t="s">
-        <v>414</v>
+        <v>637</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">

--- a/satd_issue_dataset_C#.xlsx
+++ b/satd_issue_dataset_C#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{035489A6-E2DC-3B42-97AB-B299C094DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4C46A6A-1670-7340-92CC-08CD08A42C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1062" uniqueCount="638">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1165" uniqueCount="681">
   <si>
     <t>Issue</t>
   </si>
@@ -4043,17 +4043,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>[Content]ハードコードされたテストの修正
-[Class]テストの修正</t>
-    <rPh sb="22" eb="24">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>[Content]ページング機能のテストの追加
 [Class]テストの追加</t>
     <rPh sb="21" eb="23">
@@ -4101,20 +4090,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>[Content]ハードコードされたテストの修正
-[Class]テストの修正</t>
-    <rPh sb="22" eb="24">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テストノ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t xml:space="preserve">シュウセイ </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>[Content]テストの改善
 [Class]テストの改善</t>
     <rPh sb="13" eb="15">
@@ -4143,6 +4118,644 @@
     <rPh sb="30" eb="32">
       <t xml:space="preserve">ツイカ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コマンドレットをカバーするためのテストを追加
+[Class]テストの追加</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]時間がかかるテストの改善
+[Class]テストの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジカンガカカル </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なテストの修正
+[Class]テストの修正</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">フアンテイナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのグループ名を追加
+[Class]テストの改善</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Recorderがコマンドを記録しない
+[Class]テストの修正</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]実行されていないテストを有効にする
+[Class]テストの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジッコウサレテイナイ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ユウコウニスル </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]自動化テストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ジドウカ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]失敗するテストの修正
+[Class]テストの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シッパイスル </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの依存関係の削除
+[Class]テストの修正</t>
+    <rPh sb="13" eb="17">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされたテストの修正
+[Class]テストの修正</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テストノス</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitクローンが文字コードの影響で失敗する
+[Class]他のツールへの対応</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">モジコードノエイキョウデ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シッパイス </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]修正とスナップショットの保持
+[Class]コードの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シュウセイト </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ホジ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Gitに対応するためビルドを変更
+[Class]ビルドの変更</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">タイオウスルタメ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストクラスの名前が不適切
+[Class]テストクラスの名前が不適切</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t xml:space="preserve">フテキセツ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t xml:space="preserve">フテキセツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログにメッセージを記録する必要がある
+[Class]機能の改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">キロクスルヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いバージョンのサポート削除，不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">フルイバージョンノ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]source treeから不要なコードを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]共有コード，ファイルが多すぎる
+[Class]コードの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キョウユウ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">オオスギル </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]強い依存関係を改善
+[Class]コードの改善</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ツヨイ </t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]例外をログに書き込む
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">レイガイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">カキコム </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト失敗後ウィンドウが閉じない
+[Class]テストの改善</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">トジナイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードをマージ
+[Class]コードの変更</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アセンブリの更新
+[Class]機能の更新</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナコードノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VisualStudio.Language.Intellisenseを削除
+[Class]他のツールへの対応</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t xml:space="preserve">タノ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストクラス名の変更
+[Class]クラス名の変更</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オプションの変更
+[Class]コードの改善</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なファイルの削除
+[Class]不要なファイルの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なAPIへの対応
+[Class]非推奨なAPIへの対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アセンブリの更新
+[Class]機能の更新</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラーリストの変更
+[Class]機能の改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドの修正
+[Class]ビルドの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メソッドへの対応
+[Class]メソッドへの対応</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー処理の追加
+[Class]機能の追加</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ショリノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の追加
+[Class]機能の追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いデータの削除
+[Class]古いデータの削除</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]静的分析エラーの修正
+[Class]機能の修正</t>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">セイテキブンセキエラー </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なメソッドへの対応
+[Class]非推奨なメソッドへの対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いptvsdデバッガを削除
+[Class]古いコードの削除</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]language server protocol clientの実装
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スペルミスの修正
+[Class]スペルミスの修正</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>これはCode Style？</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5110,8 +5723,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8105,7 +8718,7 @@
         <v>471</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -8119,7 +8732,7 @@
         <v>471</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -8133,7 +8746,7 @@
         <v>471</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -8147,7 +8760,7 @@
         <v>471</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -8175,7 +8788,7 @@
         <v>471</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -8189,7 +8802,7 @@
         <v>471</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -8231,7 +8844,7 @@
         <v>471</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -8245,7 +8858,7 @@
         <v>471</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -8273,7 +8886,7 @@
         <v>471</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -8283,8 +8896,11 @@
       <c r="B222" t="s">
         <v>222</v>
       </c>
+      <c r="C222" t="s">
+        <v>471</v>
+      </c>
       <c r="F222" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -8294,8 +8910,11 @@
       <c r="B223" t="s">
         <v>223</v>
       </c>
+      <c r="C223" t="s">
+        <v>471</v>
+      </c>
       <c r="F223" s="2" t="s">
-        <v>414</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -8305,8 +8924,11 @@
       <c r="B224" t="s">
         <v>224</v>
       </c>
+      <c r="C224" t="s">
+        <v>471</v>
+      </c>
       <c r="F224" s="2" t="s">
-        <v>414</v>
+        <v>636</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -8316,8 +8938,11 @@
       <c r="B225" t="s">
         <v>225</v>
       </c>
+      <c r="C225" t="s">
+        <v>471</v>
+      </c>
       <c r="F225" s="2" t="s">
-        <v>414</v>
+        <v>636</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -8327,8 +8952,11 @@
       <c r="B226" t="s">
         <v>226</v>
       </c>
+      <c r="C226" t="s">
+        <v>471</v>
+      </c>
       <c r="F226" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -8338,8 +8966,11 @@
       <c r="B227" t="s">
         <v>227</v>
       </c>
+      <c r="C227" t="s">
+        <v>471</v>
+      </c>
       <c r="F227" s="2" t="s">
-        <v>414</v>
+        <v>637</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -8349,8 +8980,11 @@
       <c r="B228" t="s">
         <v>228</v>
       </c>
+      <c r="C228" t="s">
+        <v>471</v>
+      </c>
       <c r="F228" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -8360,8 +8994,11 @@
       <c r="B229" t="s">
         <v>229</v>
       </c>
+      <c r="C229" t="s">
+        <v>471</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -8371,8 +9008,11 @@
       <c r="B230" t="s">
         <v>230</v>
       </c>
+      <c r="C230" t="s">
+        <v>471</v>
+      </c>
       <c r="F230" s="2" t="s">
-        <v>414</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -8382,8 +9022,11 @@
       <c r="B231" t="s">
         <v>231</v>
       </c>
+      <c r="C231" t="s">
+        <v>471</v>
+      </c>
       <c r="F231" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -8393,8 +9036,11 @@
       <c r="B232" t="s">
         <v>232</v>
       </c>
+      <c r="C232" t="s">
+        <v>471</v>
+      </c>
       <c r="F232" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -8404,8 +9050,11 @@
       <c r="B233" t="s">
         <v>233</v>
       </c>
+      <c r="C233" t="s">
+        <v>471</v>
+      </c>
       <c r="F233" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -8415,8 +9064,11 @@
       <c r="B234" t="s">
         <v>234</v>
       </c>
+      <c r="C234" t="s">
+        <v>471</v>
+      </c>
       <c r="F234" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -8426,8 +9078,11 @@
       <c r="B235" t="s">
         <v>235</v>
       </c>
+      <c r="C235" t="s">
+        <v>471</v>
+      </c>
       <c r="F235" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -8437,8 +9092,11 @@
       <c r="B236" t="s">
         <v>236</v>
       </c>
+      <c r="C236" t="s">
+        <v>471</v>
+      </c>
       <c r="F236" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -8448,8 +9106,11 @@
       <c r="B237" t="s">
         <v>237</v>
       </c>
+      <c r="C237" t="s">
+        <v>471</v>
+      </c>
       <c r="F237" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -8459,8 +9120,11 @@
       <c r="B238" t="s">
         <v>238</v>
       </c>
+      <c r="C238" t="s">
+        <v>471</v>
+      </c>
       <c r="F238" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -8470,8 +9134,11 @@
       <c r="B239" t="s">
         <v>239</v>
       </c>
+      <c r="C239" t="s">
+        <v>471</v>
+      </c>
       <c r="F239" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -8481,8 +9148,11 @@
       <c r="B240" t="s">
         <v>240</v>
       </c>
+      <c r="C240" t="s">
+        <v>471</v>
+      </c>
       <c r="F240" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -8492,8 +9162,11 @@
       <c r="B241" t="s">
         <v>241</v>
       </c>
+      <c r="C241" t="s">
+        <v>471</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -8503,8 +9176,11 @@
       <c r="B242" t="s">
         <v>242</v>
       </c>
+      <c r="C242" t="s">
+        <v>471</v>
+      </c>
       <c r="F242" s="2" t="s">
-        <v>414</v>
+        <v>639</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -8514,8 +9190,11 @@
       <c r="B243" t="s">
         <v>243</v>
       </c>
+      <c r="C243" t="s">
+        <v>471</v>
+      </c>
       <c r="F243" s="2" t="s">
-        <v>414</v>
+        <v>639</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -8525,8 +9204,11 @@
       <c r="B244" t="s">
         <v>244</v>
       </c>
+      <c r="C244" t="s">
+        <v>471</v>
+      </c>
       <c r="F244" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -8536,8 +9218,11 @@
       <c r="B245" t="s">
         <v>245</v>
       </c>
+      <c r="C245" t="s">
+        <v>471</v>
+      </c>
       <c r="F245" s="2" t="s">
-        <v>414</v>
+        <v>640</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -8547,8 +9232,11 @@
       <c r="B246" t="s">
         <v>246</v>
       </c>
+      <c r="C246" t="s">
+        <v>471</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>414</v>
+        <v>641</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -8558,8 +9246,11 @@
       <c r="B247" t="s">
         <v>247</v>
       </c>
+      <c r="C247" t="s">
+        <v>471</v>
+      </c>
       <c r="F247" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -8569,8 +9260,11 @@
       <c r="B248" t="s">
         <v>248</v>
       </c>
+      <c r="C248" t="s">
+        <v>471</v>
+      </c>
       <c r="F248" s="2" t="s">
-        <v>414</v>
+        <v>642</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -8580,8 +9274,11 @@
       <c r="B249" t="s">
         <v>249</v>
       </c>
+      <c r="C249" t="s">
+        <v>471</v>
+      </c>
       <c r="F249" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -8591,8 +9288,11 @@
       <c r="B250" t="s">
         <v>250</v>
       </c>
+      <c r="C250" t="s">
+        <v>471</v>
+      </c>
       <c r="F250" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -8602,8 +9302,11 @@
       <c r="B251" t="s">
         <v>251</v>
       </c>
+      <c r="C251" t="s">
+        <v>471</v>
+      </c>
       <c r="F251" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -8613,8 +9316,11 @@
       <c r="B252" t="s">
         <v>252</v>
       </c>
+      <c r="C252" t="s">
+        <v>471</v>
+      </c>
       <c r="F252" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -8624,8 +9330,11 @@
       <c r="B253" t="s">
         <v>253</v>
       </c>
+      <c r="C253" t="s">
+        <v>471</v>
+      </c>
       <c r="F253" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -8635,8 +9344,11 @@
       <c r="B254" t="s">
         <v>254</v>
       </c>
+      <c r="C254" t="s">
+        <v>471</v>
+      </c>
       <c r="F254" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -8646,8 +9358,11 @@
       <c r="B255" t="s">
         <v>255</v>
       </c>
+      <c r="C255" t="s">
+        <v>471</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -8657,8 +9372,11 @@
       <c r="B256" t="s">
         <v>256</v>
       </c>
+      <c r="C256" t="s">
+        <v>471</v>
+      </c>
       <c r="F256" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -8668,8 +9386,11 @@
       <c r="B257" t="s">
         <v>257</v>
       </c>
+      <c r="C257" t="s">
+        <v>471</v>
+      </c>
       <c r="F257" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -8679,8 +9400,11 @@
       <c r="B258" t="s">
         <v>258</v>
       </c>
+      <c r="C258" t="s">
+        <v>471</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -8690,8 +9414,11 @@
       <c r="B259" t="s">
         <v>259</v>
       </c>
+      <c r="C259" t="s">
+        <v>471</v>
+      </c>
       <c r="F259" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -8701,8 +9428,11 @@
       <c r="B260" t="s">
         <v>260</v>
       </c>
+      <c r="C260" t="s">
+        <v>471</v>
+      </c>
       <c r="F260" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -8712,8 +9442,11 @@
       <c r="B261" t="s">
         <v>261</v>
       </c>
+      <c r="C261" t="s">
+        <v>471</v>
+      </c>
       <c r="F261" s="2" t="s">
-        <v>414</v>
+        <v>643</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -8723,8 +9456,11 @@
       <c r="B262" t="s">
         <v>262</v>
       </c>
+      <c r="C262" t="s">
+        <v>471</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -8734,8 +9470,11 @@
       <c r="B263" t="s">
         <v>263</v>
       </c>
+      <c r="C263" t="s">
+        <v>471</v>
+      </c>
       <c r="F263" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -8745,8 +9484,11 @@
       <c r="B264" t="s">
         <v>264</v>
       </c>
+      <c r="C264" t="s">
+        <v>471</v>
+      </c>
       <c r="F264" s="2" t="s">
-        <v>414</v>
+        <v>644</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -8756,8 +9498,11 @@
       <c r="B265" t="s">
         <v>265</v>
       </c>
+      <c r="C265" t="s">
+        <v>471</v>
+      </c>
       <c r="F265" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -8767,8 +9512,11 @@
       <c r="B266" t="s">
         <v>266</v>
       </c>
+      <c r="C266" t="s">
+        <v>471</v>
+      </c>
       <c r="F266" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -8778,8 +9526,11 @@
       <c r="B267" t="s">
         <v>267</v>
       </c>
+      <c r="C267" t="s">
+        <v>471</v>
+      </c>
       <c r="F267" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -8789,8 +9540,11 @@
       <c r="B268" t="s">
         <v>268</v>
       </c>
+      <c r="C268" t="s">
+        <v>471</v>
+      </c>
       <c r="F268" s="2" t="s">
-        <v>414</v>
+        <v>645</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -8800,8 +9554,11 @@
       <c r="B269" t="s">
         <v>269</v>
       </c>
+      <c r="C269" t="s">
+        <v>471</v>
+      </c>
       <c r="F269" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -8811,8 +9568,11 @@
       <c r="B270" t="s">
         <v>270</v>
       </c>
+      <c r="C270" t="s">
+        <v>471</v>
+      </c>
       <c r="F270" s="2" t="s">
-        <v>414</v>
+        <v>646</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -8822,8 +9582,11 @@
       <c r="B271" t="s">
         <v>271</v>
       </c>
+      <c r="C271" t="s">
+        <v>471</v>
+      </c>
       <c r="F271" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -8833,8 +9596,11 @@
       <c r="B272" t="s">
         <v>272</v>
       </c>
+      <c r="C272" t="s">
+        <v>471</v>
+      </c>
       <c r="F272" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -8844,8 +9610,11 @@
       <c r="B273" t="s">
         <v>273</v>
       </c>
+      <c r="C273" t="s">
+        <v>471</v>
+      </c>
       <c r="F273" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -8855,8 +9624,11 @@
       <c r="B274" t="s">
         <v>274</v>
       </c>
+      <c r="C274" t="s">
+        <v>471</v>
+      </c>
       <c r="F274" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -8866,8 +9638,11 @@
       <c r="B275" t="s">
         <v>275</v>
       </c>
+      <c r="C275" t="s">
+        <v>473</v>
+      </c>
       <c r="F275" s="2" t="s">
-        <v>414</v>
+        <v>647</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -8877,8 +9652,11 @@
       <c r="B276" t="s">
         <v>276</v>
       </c>
+      <c r="C276" t="s">
+        <v>463</v>
+      </c>
       <c r="F276" s="2" t="s">
-        <v>414</v>
+        <v>648</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -8888,8 +9666,11 @@
       <c r="B277" t="s">
         <v>277</v>
       </c>
+      <c r="C277" t="s">
+        <v>471</v>
+      </c>
       <c r="F277" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -8899,8 +9680,11 @@
       <c r="B278" t="s">
         <v>278</v>
       </c>
+      <c r="C278" t="s">
+        <v>465</v>
+      </c>
       <c r="F278" s="2" t="s">
-        <v>414</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -8910,8 +9694,11 @@
       <c r="B279" t="s">
         <v>279</v>
       </c>
+      <c r="C279" t="s">
+        <v>486</v>
+      </c>
       <c r="F279" s="2" t="s">
-        <v>414</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -8921,8 +9708,11 @@
       <c r="B280" t="s">
         <v>280</v>
       </c>
+      <c r="C280" t="s">
+        <v>463</v>
+      </c>
       <c r="F280" s="2" t="s">
-        <v>414</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -8932,8 +9722,11 @@
       <c r="B281" t="s">
         <v>281</v>
       </c>
+      <c r="C281" t="s">
+        <v>463</v>
+      </c>
       <c r="F281" s="2" t="s">
-        <v>414</v>
+        <v>652</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -8943,8 +9736,11 @@
       <c r="B282" t="s">
         <v>282</v>
       </c>
+      <c r="C282" t="s">
+        <v>463</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>414</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -8954,8 +9750,11 @@
       <c r="B283" t="s">
         <v>283</v>
       </c>
+      <c r="C283" t="s">
+        <v>463</v>
+      </c>
       <c r="F283" s="2" t="s">
-        <v>414</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -8965,8 +9764,11 @@
       <c r="B284" t="s">
         <v>284</v>
       </c>
+      <c r="C284" t="s">
+        <v>463</v>
+      </c>
       <c r="F284" s="2" t="s">
-        <v>414</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -8976,8 +9778,11 @@
       <c r="B285" t="s">
         <v>285</v>
       </c>
+      <c r="C285" t="s">
+        <v>463</v>
+      </c>
       <c r="F285" s="2" t="s">
-        <v>414</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -8987,8 +9792,11 @@
       <c r="B286" t="s">
         <v>286</v>
       </c>
+      <c r="C286" t="s">
+        <v>463</v>
+      </c>
       <c r="F286" s="2" t="s">
-        <v>414</v>
+        <v>656</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -8998,8 +9806,11 @@
       <c r="B287" t="s">
         <v>287</v>
       </c>
+      <c r="C287" t="s">
+        <v>471</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -9009,8 +9820,11 @@
       <c r="B288" t="s">
         <v>288</v>
       </c>
+      <c r="C288" t="s">
+        <v>463</v>
+      </c>
       <c r="F288" s="2" t="s">
-        <v>414</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -9020,8 +9834,11 @@
       <c r="B289" t="s">
         <v>289</v>
       </c>
+      <c r="C289" t="s">
+        <v>471</v>
+      </c>
       <c r="F289" s="2" t="s">
-        <v>414</v>
+        <v>658</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -9031,8 +9848,11 @@
       <c r="B290" t="s">
         <v>290</v>
       </c>
+      <c r="C290" t="s">
+        <v>463</v>
+      </c>
       <c r="F290" s="2" t="s">
-        <v>414</v>
+        <v>659</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -9042,8 +9862,11 @@
       <c r="B291" t="s">
         <v>291</v>
       </c>
+      <c r="C291" t="s">
+        <v>471</v>
+      </c>
       <c r="F291" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -9053,8 +9876,11 @@
       <c r="B292" t="s">
         <v>292</v>
       </c>
+      <c r="C292" t="s">
+        <v>463</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>414</v>
+        <v>660</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -9064,8 +9890,11 @@
       <c r="B293" t="s">
         <v>293</v>
       </c>
+      <c r="C293" t="s">
+        <v>471</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -9075,8 +9904,11 @@
       <c r="B294" t="s">
         <v>294</v>
       </c>
+      <c r="C294" t="s">
+        <v>471</v>
+      </c>
       <c r="F294" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -9086,8 +9918,11 @@
       <c r="B295" t="s">
         <v>295</v>
       </c>
+      <c r="C295" t="s">
+        <v>471</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -9097,8 +9932,11 @@
       <c r="B296" t="s">
         <v>296</v>
       </c>
+      <c r="C296" t="s">
+        <v>471</v>
+      </c>
       <c r="F296" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -9108,8 +9946,11 @@
       <c r="B297" t="s">
         <v>297</v>
       </c>
+      <c r="C297" t="s">
+        <v>463</v>
+      </c>
       <c r="F297" s="2" t="s">
-        <v>414</v>
+        <v>661</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -9119,8 +9960,11 @@
       <c r="B298" t="s">
         <v>298</v>
       </c>
+      <c r="C298" t="s">
+        <v>471</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -9130,8 +9974,11 @@
       <c r="B299" t="s">
         <v>299</v>
       </c>
+      <c r="C299" t="s">
+        <v>473</v>
+      </c>
       <c r="F299" s="2" t="s">
-        <v>414</v>
+        <v>662</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -9141,8 +9988,11 @@
       <c r="B300" t="s">
         <v>300</v>
       </c>
+      <c r="C300" t="s">
+        <v>486</v>
+      </c>
       <c r="F300" s="2" t="s">
-        <v>414</v>
+        <v>663</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -9152,8 +10002,11 @@
       <c r="B301" t="s">
         <v>301</v>
       </c>
+      <c r="C301" t="s">
+        <v>471</v>
+      </c>
       <c r="F301" s="2" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -9163,8 +10016,11 @@
       <c r="B302" t="s">
         <v>302</v>
       </c>
+      <c r="C302" t="s">
+        <v>463</v>
+      </c>
       <c r="F302" s="2" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -9174,8 +10030,11 @@
       <c r="B303" t="s">
         <v>303</v>
       </c>
+      <c r="C303" t="s">
+        <v>463</v>
+      </c>
       <c r="F303" s="2" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -9185,8 +10044,11 @@
       <c r="B304" t="s">
         <v>304</v>
       </c>
+      <c r="C304" t="s">
+        <v>463</v>
+      </c>
       <c r="F304" s="2" t="s">
-        <v>414</v>
+        <v>665</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -9196,8 +10058,11 @@
       <c r="B305" t="s">
         <v>305</v>
       </c>
+      <c r="C305" t="s">
+        <v>473</v>
+      </c>
       <c r="F305" s="2" t="s">
-        <v>414</v>
+        <v>666</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -9207,8 +10072,11 @@
       <c r="B306" t="s">
         <v>306</v>
       </c>
+      <c r="C306" t="s">
+        <v>473</v>
+      </c>
       <c r="F306" s="2" t="s">
-        <v>414</v>
+        <v>666</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -9218,8 +10086,11 @@
       <c r="B307" t="s">
         <v>307</v>
       </c>
+      <c r="C307" t="s">
+        <v>473</v>
+      </c>
       <c r="F307" s="2" t="s">
-        <v>414</v>
+        <v>666</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -9229,8 +10100,11 @@
       <c r="B308" t="s">
         <v>308</v>
       </c>
+      <c r="C308" t="s">
+        <v>463</v>
+      </c>
       <c r="F308" s="2" t="s">
-        <v>414</v>
+        <v>667</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -9240,8 +10114,11 @@
       <c r="B309" t="s">
         <v>309</v>
       </c>
+      <c r="C309" t="s">
+        <v>463</v>
+      </c>
       <c r="F309" s="2" t="s">
-        <v>414</v>
+        <v>668</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -9251,8 +10128,11 @@
       <c r="B310" t="s">
         <v>310</v>
       </c>
+      <c r="C310" t="s">
+        <v>465</v>
+      </c>
       <c r="F310" s="2" t="s">
-        <v>414</v>
+        <v>669</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -9262,8 +10142,11 @@
       <c r="B311" t="s">
         <v>311</v>
       </c>
+      <c r="C311" t="s">
+        <v>473</v>
+      </c>
       <c r="F311" s="2" t="s">
-        <v>414</v>
+        <v>670</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -9273,8 +10156,11 @@
       <c r="B312" t="s">
         <v>312</v>
       </c>
+      <c r="C312" t="s">
+        <v>463</v>
+      </c>
       <c r="F312" s="2" t="s">
-        <v>414</v>
+        <v>671</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -9284,8 +10170,11 @@
       <c r="B313" t="s">
         <v>313</v>
       </c>
+      <c r="C313" t="s">
+        <v>471</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>414</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -9295,8 +10184,11 @@
       <c r="B314" t="s">
         <v>314</v>
       </c>
+      <c r="C314" t="s">
+        <v>463</v>
+      </c>
       <c r="F314" s="2" t="s">
-        <v>414</v>
+        <v>672</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -9306,8 +10198,11 @@
       <c r="B315" t="s">
         <v>315</v>
       </c>
+      <c r="C315" t="s">
+        <v>463</v>
+      </c>
       <c r="F315" s="2" t="s">
-        <v>414</v>
+        <v>673</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -9317,8 +10212,11 @@
       <c r="B316" t="s">
         <v>316</v>
       </c>
+      <c r="C316" t="s">
+        <v>463</v>
+      </c>
       <c r="F316" s="2" t="s">
-        <v>414</v>
+        <v>674</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -9328,8 +10226,11 @@
       <c r="B317" t="s">
         <v>317</v>
       </c>
+      <c r="C317" t="s">
+        <v>463</v>
+      </c>
       <c r="F317" s="2" t="s">
-        <v>414</v>
+        <v>674</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -9339,8 +10240,11 @@
       <c r="B318" t="s">
         <v>318</v>
       </c>
+      <c r="C318" t="s">
+        <v>473</v>
+      </c>
       <c r="F318" s="2" t="s">
-        <v>414</v>
+        <v>675</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -9350,8 +10254,11 @@
       <c r="B319" t="s">
         <v>319</v>
       </c>
+      <c r="C319" t="s">
+        <v>463</v>
+      </c>
       <c r="F319" s="2" t="s">
-        <v>414</v>
+        <v>676</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -9361,8 +10268,11 @@
       <c r="B320" t="s">
         <v>320</v>
       </c>
+      <c r="C320" t="s">
+        <v>463</v>
+      </c>
       <c r="F320" s="2" t="s">
-        <v>414</v>
+        <v>677</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -9372,8 +10282,11 @@
       <c r="B321" t="s">
         <v>321</v>
       </c>
+      <c r="C321" t="s">
+        <v>463</v>
+      </c>
       <c r="F321" s="2" t="s">
-        <v>414</v>
+        <v>678</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -9383,8 +10296,17 @@
       <c r="B322" t="s">
         <v>322</v>
       </c>
+      <c r="C322" t="s">
+        <v>486</v>
+      </c>
+      <c r="D322" t="s">
+        <v>463</v>
+      </c>
+      <c r="E322" t="s">
+        <v>680</v>
+      </c>
       <c r="F322" s="2" t="s">
-        <v>414</v>
+        <v>679</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">

--- a/satd_issue_dataset_C#.xlsx
+++ b/satd_issue_dataset_C#.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4C46A6A-1670-7340-92CC-08CD08A42C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3A1EDB6-46AB-F044-9EA6-AC17A1F8260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1165" uniqueCount="681">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1195" uniqueCount="711">
   <si>
     <t>Issue</t>
   </si>
@@ -4756,6 +4756,360 @@
   </si>
   <si>
     <t>これはCode Style？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VisualStudio2017でのビルドに対応
+[Class]他のツールへの対応</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パスにスペースが含まれているとファイルが機能しない
+[Class]機能の修正</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スクリプトの呼び出し方を変更
+[Class]機能の改善</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ヨビダシカタ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VCLauncher vsixはfixed versionではなくbuild numberを使用する
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python workloadがインストールされていてもPTVSのビルドが実行できるようにする
+[Class]機能の改善</t>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]warningへの対応
+[Class]バグの修正</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストデータの取得パスを修正
+[Class]テストの修正</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュトクパス </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pipeline analyzerの問題の修正
+[Class]機能の修正</t>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]BuildTasks.dllがロックされて起こるビルドエラーへの対応
+[Class]ビルドエラーへの対応</t>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">オコル </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]static analysis errorへの対応
+[Class]エラーの対応</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードの整理
+[Class]コードの整理</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストスクリプトを1つのフォルダに統合
+[Class]テスト用ファイルの移動</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不十分なドキュメントの追記
+[Class]ドキュメントの追記</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">フジュウブン </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ツイキ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ツイキ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Component governance tasks
+[Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Compliance assessment tasks
+[Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルド警告への対応，ビルドの修正
+[Class]ビルドの修正</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].NET2.0への対応，VS2005のサポート終了
+[Class]他のツールへの対応</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">タノツールノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フォームのサイズ変更時にラグが大きい
+[Class]パフォーマンスの問題</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">オオキイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Intellisensee API のドキュメント追加
+[Class]ドキュメントの追加</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].Show()の修正
+[Class]関数の修正</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードスタイルの統一
+[Class]コードスタイル</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">トウイツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サンプルプロジェクトでSkin Demoが壊れている
+[Class]コードの修正</t>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">コワレテイル </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メニューの表示の修正
+[Class]UIの修正</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アイコンの修正
+[Class]UIの修正</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VSの拡張機能の追加
+[Class]コードの改善</t>
+    <rPh sb="12" eb="16">
+      <t xml:space="preserve">カクチョウキノウノ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]dock contentsを閉じずにテーマを変更する
+[Class]仕様の問題</t>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">トジズニ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヘンコウスル </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメントの追加
+[Class]ドキュメントの追加</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ライトテーマを使用した場合遅延が発生
+[Class]パフォーマンスの問題</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シヨウシタバアイ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">チエンガハッセイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カラーの変更
+[Class]UIの変更</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サイズの大きいファイルへの対応
+[Class]ファイルサイズの問題</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5723,8 +6077,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10316,8 +10670,11 @@
       <c r="B323" t="s">
         <v>323</v>
       </c>
+      <c r="C323" t="s">
+        <v>473</v>
+      </c>
       <c r="F323" s="2" t="s">
-        <v>414</v>
+        <v>681</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -10327,8 +10684,11 @@
       <c r="B324" t="s">
         <v>324</v>
       </c>
+      <c r="C324" t="s">
+        <v>463</v>
+      </c>
       <c r="F324" s="2" t="s">
-        <v>414</v>
+        <v>682</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -10338,8 +10698,11 @@
       <c r="B325" t="s">
         <v>325</v>
       </c>
+      <c r="C325" t="s">
+        <v>463</v>
+      </c>
       <c r="F325" s="2" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -10349,19 +10712,25 @@
       <c r="B326" t="s">
         <v>326</v>
       </c>
+      <c r="C326" t="s">
+        <v>463</v>
+      </c>
       <c r="F326" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="42">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="63">
       <c r="A327">
         <v>5303</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
       </c>
+      <c r="C327" t="s">
+        <v>463</v>
+      </c>
       <c r="F327" s="2" t="s">
-        <v>414</v>
+        <v>685</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -10371,8 +10740,11 @@
       <c r="B328" t="s">
         <v>328</v>
       </c>
+      <c r="C328" t="s">
+        <v>463</v>
+      </c>
       <c r="F328" s="2" t="s">
-        <v>414</v>
+        <v>686</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -10382,8 +10754,11 @@
       <c r="B329" t="s">
         <v>329</v>
       </c>
+      <c r="C329" t="s">
+        <v>471</v>
+      </c>
       <c r="F329" s="2" t="s">
-        <v>414</v>
+        <v>687</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -10393,8 +10768,11 @@
       <c r="B330" t="s">
         <v>330</v>
       </c>
+      <c r="C330" t="s">
+        <v>463</v>
+      </c>
       <c r="F330" s="2" t="s">
-        <v>414</v>
+        <v>688</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -10404,8 +10782,11 @@
       <c r="B331" t="s">
         <v>331</v>
       </c>
+      <c r="C331" t="s">
+        <v>465</v>
+      </c>
       <c r="F331" s="2" t="s">
-        <v>414</v>
+        <v>689</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -10415,8 +10796,11 @@
       <c r="B332" t="s">
         <v>332</v>
       </c>
+      <c r="C332" t="s">
+        <v>463</v>
+      </c>
       <c r="F332" s="2" t="s">
-        <v>414</v>
+        <v>690</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -10426,8 +10810,11 @@
       <c r="B333" t="s">
         <v>333</v>
       </c>
+      <c r="C333" t="s">
+        <v>463</v>
+      </c>
       <c r="F333" s="2" t="s">
-        <v>414</v>
+        <v>691</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -10437,8 +10824,11 @@
       <c r="B334" t="s">
         <v>334</v>
       </c>
+      <c r="C334" t="s">
+        <v>471</v>
+      </c>
       <c r="F334" s="2" t="s">
-        <v>414</v>
+        <v>692</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -10448,8 +10838,11 @@
       <c r="B335" t="s">
         <v>335</v>
       </c>
+      <c r="C335" t="s">
+        <v>458</v>
+      </c>
       <c r="F335" s="2" t="s">
-        <v>414</v>
+        <v>693</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -10459,8 +10852,11 @@
       <c r="B336" t="s">
         <v>336</v>
       </c>
+      <c r="C336" t="s">
+        <v>452</v>
+      </c>
       <c r="F336" s="2" t="s">
-        <v>414</v>
+        <v>695</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -10470,8 +10866,11 @@
       <c r="B337" t="s">
         <v>337</v>
       </c>
+      <c r="C337" t="s">
+        <v>452</v>
+      </c>
       <c r="F337" s="2" t="s">
-        <v>414</v>
+        <v>694</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -10481,8 +10880,11 @@
       <c r="B338" t="s">
         <v>338</v>
       </c>
+      <c r="C338" t="s">
+        <v>465</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>414</v>
+        <v>696</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -10492,8 +10894,11 @@
       <c r="B339" t="s">
         <v>339</v>
       </c>
+      <c r="C339" t="s">
+        <v>473</v>
+      </c>
       <c r="F339" s="2" t="s">
-        <v>414</v>
+        <v>697</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -10503,8 +10908,11 @@
       <c r="B340" t="s">
         <v>340</v>
       </c>
+      <c r="C340" t="s">
+        <v>523</v>
+      </c>
       <c r="F340" s="2" t="s">
-        <v>414</v>
+        <v>698</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -10514,8 +10922,11 @@
       <c r="B341" t="s">
         <v>341</v>
       </c>
+      <c r="C341" t="s">
+        <v>458</v>
+      </c>
       <c r="F341" s="2" t="s">
-        <v>414</v>
+        <v>699</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -10525,8 +10936,11 @@
       <c r="B342" t="s">
         <v>342</v>
       </c>
+      <c r="C342" t="s">
+        <v>463</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>414</v>
+        <v>700</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -10536,8 +10950,11 @@
       <c r="B343" t="s">
         <v>343</v>
       </c>
+      <c r="C343" t="s">
+        <v>486</v>
+      </c>
       <c r="F343" s="2" t="s">
-        <v>414</v>
+        <v>701</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -10547,8 +10964,11 @@
       <c r="B344" t="s">
         <v>344</v>
       </c>
+      <c r="C344" t="s">
+        <v>463</v>
+      </c>
       <c r="F344" s="2" t="s">
-        <v>414</v>
+        <v>702</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -10558,8 +10978,11 @@
       <c r="B345" t="s">
         <v>345</v>
       </c>
+      <c r="C345" t="s">
+        <v>456</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>414</v>
+        <v>703</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -10569,8 +10992,11 @@
       <c r="B346" t="s">
         <v>346</v>
       </c>
+      <c r="C346" t="s">
+        <v>456</v>
+      </c>
       <c r="F346" s="2" t="s">
-        <v>414</v>
+        <v>704</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -10580,8 +11006,11 @@
       <c r="B347" t="s">
         <v>347</v>
       </c>
+      <c r="C347" t="s">
+        <v>463</v>
+      </c>
       <c r="F347" s="2" t="s">
-        <v>414</v>
+        <v>705</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -10591,8 +11020,11 @@
       <c r="B348" t="s">
         <v>348</v>
       </c>
+      <c r="C348" t="s">
+        <v>462</v>
+      </c>
       <c r="F348" s="2" t="s">
-        <v>414</v>
+        <v>706</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -10602,8 +11034,11 @@
       <c r="B349" t="s">
         <v>349</v>
       </c>
+      <c r="C349" t="s">
+        <v>458</v>
+      </c>
       <c r="F349" s="2" t="s">
-        <v>414</v>
+        <v>707</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -10613,8 +11048,11 @@
       <c r="B350" t="s">
         <v>350</v>
       </c>
+      <c r="C350" t="s">
+        <v>523</v>
+      </c>
       <c r="F350" s="2" t="s">
-        <v>414</v>
+        <v>708</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -10624,8 +11062,11 @@
       <c r="B351" t="s">
         <v>351</v>
       </c>
+      <c r="C351" t="s">
+        <v>456</v>
+      </c>
       <c r="F351" s="2" t="s">
-        <v>414</v>
+        <v>709</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -10635,8 +11076,11 @@
       <c r="B352" t="s">
         <v>352</v>
       </c>
+      <c r="C352" t="s">
+        <v>463</v>
+      </c>
       <c r="F352" s="2" t="s">
-        <v>414</v>
+        <v>710</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">

--- a/satd_issue_dataset_C#.xlsx
+++ b/satd_issue_dataset_C#.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3A1EDB6-46AB-F044-9EA6-AC17A1F8260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD38D2C3-F868-3243-9822-2C44B4B2C4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_C#" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1195" uniqueCount="711">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1232" uniqueCount="743">
   <si>
     <t>Issue</t>
   </si>
@@ -5109,6 +5109,353 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドエラー，VS2010の削除
+[Class]ビルドエラーと他のツールへの対応</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>VS2010が原因のビルドエラー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VS2005への対応
+[Class]他のツールへの対応</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">タノツール </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FormClosed()が発生しない場合がある
+[Class]関数の修正</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ハッセイシナイバアイガアル </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ウィンドウが後ろに表示される
+[Class]UIの修正</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ヒョウジサレテル </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]使用するコンテナの変更
+[Class]仕様の変更</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シヨウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]packagesserviceを分割する
+[Class]機能の変更</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ブンカツスル </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PackageVersionPanelからRemove property Versionを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DoCrossThreadCallExtensionMethodを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gridviewをusercontrolにする
+[Class]機能の変更</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]statusbarをusercontrolにする
+[Class]コードの削減</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]search/filter thingを移動しusercontrolにする
+[Class]機能の移動，変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CommonWixInfo.wxiファイルの削除
+[Class]不要ファイルの削除</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">フヨウファイルノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]generated MSIの名前変更
+[Class]ファイル名の変更</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヘルプページの更新
+[Class]ドキュメントの更新</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リポジトリ名の変更
+[Class]リポジトリ名の変更</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MahApps.Metroのバージョンアップデート
+[Class]バージョンアップデート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイルの修正
+[Class]ファイルの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]readmeを更新
+[Class]ドキュメントの更新</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いコードのクリーンアップ
+[Class]コードのクリーンアップ</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]StyleCopの導入
+[Class]新たなツールの導入</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">アラタナ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Checkのツールを導入（Code StyleのTD？）</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コード分析の導入
+[Class]新たなツールの導入</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">アラタナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ReSharper Code Inspectionsのセットアップ
+[Class]新たな機能の導入</t>
+    <rPh sb="50" eb="51">
+      <t xml:space="preserve">アラタナキノウノ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ReSharper Duplicate Checkerのセットアップ
+[Class]新たな機能の導入</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドエラーの修正
+[Class]ビルドエラーの修正</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Globalisation，Localisationの利用
+[Class]新たな機能の導入</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]管理者に関するバグの修正
+[Class]バグの修正</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">カンリシャ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複したコードの削除
+[Class]重複したコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チョウフクシタ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">チョウフク </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gitコマンドが繰り返し呼び出される
+[Class]機能の改善</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">クリカエシ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヨビダサレル </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitClientをビューで使用してはいけない
+[Class]機能の削除</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シヨウシテハイケナイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]失敗時のログを取得するためテストスクリプトを変更
+[Class]テストの変更</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">シッパイジニオ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュトクスルタメ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ヘンコウ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -6077,8 +6424,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="F353" sqref="F353"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="F383" sqref="F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11090,8 +11437,17 @@
       <c r="B353" t="s">
         <v>353</v>
       </c>
+      <c r="C353" t="s">
+        <v>465</v>
+      </c>
+      <c r="D353" t="s">
+        <v>473</v>
+      </c>
+      <c r="E353" t="s">
+        <v>712</v>
+      </c>
       <c r="F353" s="2" t="s">
-        <v>414</v>
+        <v>711</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -11101,8 +11457,11 @@
       <c r="B354" t="s">
         <v>354</v>
       </c>
+      <c r="C354" t="s">
+        <v>473</v>
+      </c>
       <c r="F354" s="2" t="s">
-        <v>414</v>
+        <v>713</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -11112,8 +11471,11 @@
       <c r="B355" t="s">
         <v>355</v>
       </c>
+      <c r="C355" t="s">
+        <v>463</v>
+      </c>
       <c r="F355" s="2" t="s">
-        <v>414</v>
+        <v>714</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -11123,8 +11485,11 @@
       <c r="B356" t="s">
         <v>356</v>
       </c>
+      <c r="C356" t="s">
+        <v>456</v>
+      </c>
       <c r="F356" s="2" t="s">
-        <v>414</v>
+        <v>715</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -11134,8 +11499,11 @@
       <c r="B357" t="s">
         <v>357</v>
       </c>
+      <c r="C357" t="s">
+        <v>462</v>
+      </c>
       <c r="F357" s="2" t="s">
-        <v>414</v>
+        <v>716</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -11145,8 +11513,11 @@
       <c r="B358" t="s">
         <v>358</v>
       </c>
+      <c r="C358" t="s">
+        <v>463</v>
+      </c>
       <c r="F358" s="2" t="s">
-        <v>414</v>
+        <v>717</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -11156,8 +11527,11 @@
       <c r="B359" t="s">
         <v>359</v>
       </c>
+      <c r="C359" t="s">
+        <v>463</v>
+      </c>
       <c r="F359" s="2" t="s">
-        <v>414</v>
+        <v>720</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -11167,8 +11541,11 @@
       <c r="B360" t="s">
         <v>360</v>
       </c>
+      <c r="C360" t="s">
+        <v>463</v>
+      </c>
       <c r="F360" s="2" t="s">
-        <v>414</v>
+        <v>718</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -11178,8 +11555,11 @@
       <c r="B361" t="s">
         <v>361</v>
       </c>
+      <c r="C361" t="s">
+        <v>463</v>
+      </c>
       <c r="F361" s="2" t="s">
-        <v>414</v>
+        <v>719</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -11189,8 +11569,11 @@
       <c r="B362" t="s">
         <v>362</v>
       </c>
+      <c r="C362" t="s">
+        <v>463</v>
+      </c>
       <c r="F362" s="2" t="s">
-        <v>414</v>
+        <v>721</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -11200,8 +11583,11 @@
       <c r="B363" t="s">
         <v>363</v>
       </c>
+      <c r="C363" t="s">
+        <v>463</v>
+      </c>
       <c r="F363" s="2" t="s">
-        <v>414</v>
+        <v>722</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -11211,8 +11597,11 @@
       <c r="B364" t="s">
         <v>364</v>
       </c>
+      <c r="C364" t="s">
+        <v>463</v>
+      </c>
       <c r="F364" s="2" t="s">
-        <v>414</v>
+        <v>723</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -11222,8 +11611,17 @@
       <c r="B365" t="s">
         <v>365</v>
       </c>
+      <c r="C365" t="s">
+        <v>486</v>
+      </c>
+      <c r="D365" t="s">
+        <v>463</v>
+      </c>
+      <c r="E365" t="s">
+        <v>680</v>
+      </c>
       <c r="F365" s="2" t="s">
-        <v>414</v>
+        <v>724</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -11233,8 +11631,11 @@
       <c r="B366" t="s">
         <v>366</v>
       </c>
+      <c r="C366" t="s">
+        <v>458</v>
+      </c>
       <c r="F366" s="2" t="s">
-        <v>414</v>
+        <v>725</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -11244,8 +11645,14 @@
       <c r="B367" t="s">
         <v>367</v>
       </c>
+      <c r="C367" t="s">
+        <v>486</v>
+      </c>
+      <c r="D367" t="s">
+        <v>463</v>
+      </c>
       <c r="F367" s="2" t="s">
-        <v>414</v>
+        <v>726</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -11255,8 +11662,11 @@
       <c r="B368" t="s">
         <v>368</v>
       </c>
+      <c r="C368" t="s">
+        <v>463</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>414</v>
+        <v>727</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -11266,8 +11676,11 @@
       <c r="B369" t="s">
         <v>369</v>
       </c>
+      <c r="C369" t="s">
+        <v>463</v>
+      </c>
       <c r="F369" s="2" t="s">
-        <v>414</v>
+        <v>728</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -11277,8 +11690,11 @@
       <c r="B370" t="s">
         <v>370</v>
       </c>
+      <c r="C370" t="s">
+        <v>458</v>
+      </c>
       <c r="F370" s="2" t="s">
-        <v>414</v>
+        <v>729</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -11288,8 +11704,11 @@
       <c r="B371" t="s">
         <v>371</v>
       </c>
+      <c r="C371" t="s">
+        <v>463</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>414</v>
+        <v>730</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -11299,8 +11718,17 @@
       <c r="B372" t="s">
         <v>372</v>
       </c>
+      <c r="C372" t="s">
+        <v>463</v>
+      </c>
+      <c r="D372" t="s">
+        <v>486</v>
+      </c>
+      <c r="E372" t="s">
+        <v>732</v>
+      </c>
       <c r="F372" s="2" t="s">
-        <v>414</v>
+        <v>731</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -11310,8 +11738,11 @@
       <c r="B373" t="s">
         <v>373</v>
       </c>
+      <c r="C373" t="s">
+        <v>463</v>
+      </c>
       <c r="F373" s="2" t="s">
-        <v>414</v>
+        <v>733</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -11321,8 +11752,11 @@
       <c r="B374" t="s">
         <v>374</v>
       </c>
+      <c r="C374" t="s">
+        <v>463</v>
+      </c>
       <c r="F374" s="2" t="s">
-        <v>414</v>
+        <v>734</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -11332,8 +11766,11 @@
       <c r="B375" t="s">
         <v>375</v>
       </c>
+      <c r="C375" t="s">
+        <v>463</v>
+      </c>
       <c r="F375" s="2" t="s">
-        <v>414</v>
+        <v>735</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -11343,8 +11780,11 @@
       <c r="B376" t="s">
         <v>376</v>
       </c>
+      <c r="C376" t="s">
+        <v>465</v>
+      </c>
       <c r="F376" s="2" t="s">
-        <v>414</v>
+        <v>736</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -11354,8 +11794,11 @@
       <c r="B377" t="s">
         <v>377</v>
       </c>
+      <c r="C377" t="s">
+        <v>463</v>
+      </c>
       <c r="F377" s="2" t="s">
-        <v>414</v>
+        <v>737</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -11365,8 +11808,11 @@
       <c r="B378" t="s">
         <v>378</v>
       </c>
+      <c r="C378" t="s">
+        <v>463</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>414</v>
+        <v>738</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -11376,8 +11822,11 @@
       <c r="B379" t="s">
         <v>379</v>
       </c>
+      <c r="C379" t="s">
+        <v>463</v>
+      </c>
       <c r="F379" s="2" t="s">
-        <v>414</v>
+        <v>739</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -11387,8 +11836,11 @@
       <c r="B380" t="s">
         <v>380</v>
       </c>
+      <c r="C380" t="s">
+        <v>463</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>414</v>
+        <v>740</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -11398,8 +11850,11 @@
       <c r="B381" t="s">
         <v>381</v>
       </c>
+      <c r="C381" t="s">
+        <v>463</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>414</v>
+        <v>741</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -11409,8 +11864,11 @@
       <c r="B382" t="s">
         <v>382</v>
       </c>
+      <c r="C382" t="s">
+        <v>471</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>414</v>
+        <v>742</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">

--- a/satd_issue_dataset_C#.xlsx
+++ b/satd_issue_dataset_C#.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD38D2C3-F868-3243-9822-2C44B4B2C4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{958578A8-87F7-7E40-AEC6-025F4A4633F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6424,8 +6424,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="F383" sqref="F383"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
